--- a/data/pca/factorExposure/factorExposure_2012-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-11.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01734739566397606</v>
+        <v>-0.0225503196138913</v>
       </c>
       <c r="C2">
-        <v>0.02758583636460599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02425246040245926</v>
+      </c>
+      <c r="D2">
+        <v>-0.005049140450123457</v>
+      </c>
+      <c r="E2">
+        <v>-0.01609325109251232</v>
+      </c>
+      <c r="F2">
+        <v>-0.004346020275154197</v>
+      </c>
+      <c r="G2">
+        <v>0.01561672670437405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06863276474661748</v>
+        <v>-0.07493643105770724</v>
       </c>
       <c r="C4">
-        <v>0.05866295981771879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.03938965173414646</v>
+      </c>
+      <c r="D4">
+        <v>-0.06921033500280141</v>
+      </c>
+      <c r="E4">
+        <v>0.00115083510483776</v>
+      </c>
+      <c r="F4">
+        <v>-0.02376562996387778</v>
+      </c>
+      <c r="G4">
+        <v>-0.02374186209480806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09679766834443221</v>
+        <v>-0.1123396826379064</v>
       </c>
       <c r="C6">
-        <v>0.06650026091096463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04562492186586404</v>
+      </c>
+      <c r="D6">
+        <v>-0.01305141584127582</v>
+      </c>
+      <c r="E6">
+        <v>0.004140764437186732</v>
+      </c>
+      <c r="F6">
+        <v>-0.04733933654514213</v>
+      </c>
+      <c r="G6">
+        <v>0.01439801946875848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04480587196982615</v>
+        <v>-0.05382015657779138</v>
       </c>
       <c r="C7">
-        <v>0.03472314615365915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02590741545919581</v>
+      </c>
+      <c r="D7">
+        <v>-0.03349423036296952</v>
+      </c>
+      <c r="E7">
+        <v>-0.02391511654954295</v>
+      </c>
+      <c r="F7">
+        <v>-0.02630419085577279</v>
+      </c>
+      <c r="G7">
+        <v>-0.03787827769046369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03245470005528292</v>
+        <v>-0.03346430101839826</v>
       </c>
       <c r="C8">
-        <v>0.02686603821709534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01717566273261504</v>
+      </c>
+      <c r="D8">
+        <v>-0.03990641384533716</v>
+      </c>
+      <c r="E8">
+        <v>-0.01069964536725693</v>
+      </c>
+      <c r="F8">
+        <v>-0.04847146045607432</v>
+      </c>
+      <c r="G8">
+        <v>0.02018377211748071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0618936297780084</v>
+        <v>-0.06924099115075326</v>
       </c>
       <c r="C9">
-        <v>0.04562946494765437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02895544682299893</v>
+      </c>
+      <c r="D9">
+        <v>-0.07102318366613534</v>
+      </c>
+      <c r="E9">
+        <v>-0.01861770307012089</v>
+      </c>
+      <c r="F9">
+        <v>-0.03392388566982883</v>
+      </c>
+      <c r="G9">
+        <v>-0.00998584965271546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03009768336165647</v>
+        <v>-0.04133801776580145</v>
       </c>
       <c r="C10">
-        <v>0.03815619687702022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.039132979608921</v>
+      </c>
+      <c r="D10">
+        <v>0.18451340497465</v>
+      </c>
+      <c r="E10">
+        <v>-0.04860033849505205</v>
+      </c>
+      <c r="F10">
+        <v>-0.02859587906790539</v>
+      </c>
+      <c r="G10">
+        <v>-0.02525118312311178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0698058034028963</v>
+        <v>-0.07561563702403465</v>
       </c>
       <c r="C11">
-        <v>0.0530625733689613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03134911468958136</v>
+      </c>
+      <c r="D11">
+        <v>-0.06819997117726118</v>
+      </c>
+      <c r="E11">
+        <v>0.00691769302003932</v>
+      </c>
+      <c r="F11">
+        <v>-0.03310875476799299</v>
+      </c>
+      <c r="G11">
+        <v>-0.03969997340593731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05278237281792344</v>
+        <v>-0.06033768595723958</v>
       </c>
       <c r="C12">
-        <v>0.05164146832502473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03542241823476993</v>
+      </c>
+      <c r="D12">
+        <v>-0.05123350793340555</v>
+      </c>
+      <c r="E12">
+        <v>-0.009419415550792839</v>
+      </c>
+      <c r="F12">
+        <v>-0.02273737324087305</v>
+      </c>
+      <c r="G12">
+        <v>-0.03395568204304546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05919548672112539</v>
+        <v>-0.06437702897791676</v>
       </c>
       <c r="C13">
-        <v>0.05169258593141338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03066846116958547</v>
+      </c>
+      <c r="D13">
+        <v>-0.05403405971884621</v>
+      </c>
+      <c r="E13">
+        <v>-0.00880992142645848</v>
+      </c>
+      <c r="F13">
+        <v>-0.01910950503040678</v>
+      </c>
+      <c r="G13">
+        <v>-0.01968388136148534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03331589190265286</v>
+        <v>-0.03825536819360455</v>
       </c>
       <c r="C14">
-        <v>0.02900363893342478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02229372067029588</v>
+      </c>
+      <c r="D14">
+        <v>-0.0113582717887637</v>
+      </c>
+      <c r="E14">
+        <v>-0.01827866872783595</v>
+      </c>
+      <c r="F14">
+        <v>-0.01603711331203118</v>
+      </c>
+      <c r="G14">
+        <v>0.007300652035390145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03966978415343687</v>
+        <v>-0.04031096640959157</v>
       </c>
       <c r="C15">
-        <v>0.01420323268552171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.004958082421271618</v>
+      </c>
+      <c r="D15">
+        <v>-0.01887882242508786</v>
+      </c>
+      <c r="E15">
+        <v>-0.04305613724487994</v>
+      </c>
+      <c r="F15">
+        <v>0.003299565110704695</v>
+      </c>
+      <c r="G15">
+        <v>0.01983022829493589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0578889537946648</v>
+        <v>-0.0613880445775255</v>
       </c>
       <c r="C16">
-        <v>0.04396603401026588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02718547666057193</v>
+      </c>
+      <c r="D16">
+        <v>-0.05992187741700981</v>
+      </c>
+      <c r="E16">
+        <v>-0.001712597311070074</v>
+      </c>
+      <c r="F16">
+        <v>-0.02638424995627182</v>
+      </c>
+      <c r="G16">
+        <v>-0.02411885850493845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06236644128117364</v>
+        <v>-0.06134293180365738</v>
       </c>
       <c r="C20">
-        <v>0.03711718017648335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01822205131373276</v>
+      </c>
+      <c r="D20">
+        <v>-0.04960097600631404</v>
+      </c>
+      <c r="E20">
+        <v>-0.01962018251128202</v>
+      </c>
+      <c r="F20">
+        <v>-0.02215344193087292</v>
+      </c>
+      <c r="G20">
+        <v>-0.02636187997952712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02683024316684112</v>
+        <v>-0.02274505194681272</v>
       </c>
       <c r="C21">
-        <v>-0.0002292917659397383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01088315747000302</v>
+      </c>
+      <c r="D21">
+        <v>-0.03508253303012104</v>
+      </c>
+      <c r="E21">
+        <v>-0.09256831064525367</v>
+      </c>
+      <c r="F21">
+        <v>0.007677958731111167</v>
+      </c>
+      <c r="G21">
+        <v>0.02065273581517675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06973404204334202</v>
+        <v>-0.06959480955482907</v>
       </c>
       <c r="C22">
-        <v>0.07733107359383436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04860154530238112</v>
+      </c>
+      <c r="D22">
+        <v>-0.1081048900370216</v>
+      </c>
+      <c r="E22">
+        <v>-0.5973585842961997</v>
+      </c>
+      <c r="F22">
+        <v>0.1788135793970894</v>
+      </c>
+      <c r="G22">
+        <v>0.0507320714550042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0704846523121424</v>
+        <v>-0.07030485798723224</v>
       </c>
       <c r="C23">
-        <v>0.07685636475516228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04804240067276314</v>
+      </c>
+      <c r="D23">
+        <v>-0.1092376329280252</v>
+      </c>
+      <c r="E23">
+        <v>-0.5965526112045729</v>
+      </c>
+      <c r="F23">
+        <v>0.1784558544417458</v>
+      </c>
+      <c r="G23">
+        <v>0.05226784928268788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06441963300066314</v>
+        <v>-0.07223053444166787</v>
       </c>
       <c r="C24">
-        <v>0.05151695391965332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.0325496599846885</v>
+      </c>
+      <c r="D24">
+        <v>-0.0665459494206648</v>
+      </c>
+      <c r="E24">
+        <v>-0.00820351849593684</v>
+      </c>
+      <c r="F24">
+        <v>-0.0406318624071285</v>
+      </c>
+      <c r="G24">
+        <v>-0.01810048232700328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06525014830702729</v>
+        <v>-0.07093487971133647</v>
       </c>
       <c r="C25">
-        <v>0.05783598517991144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03827128146925379</v>
+      </c>
+      <c r="D25">
+        <v>-0.06457611268257706</v>
+      </c>
+      <c r="E25">
+        <v>-0.008551809946062415</v>
+      </c>
+      <c r="F25">
+        <v>-0.03641518074046071</v>
+      </c>
+      <c r="G25">
+        <v>-0.016117291387638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03913613434515629</v>
+        <v>-0.04008273285938183</v>
       </c>
       <c r="C26">
-        <v>0.01362607562860647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005220475138439162</v>
+      </c>
+      <c r="D26">
+        <v>-0.01969848385014661</v>
+      </c>
+      <c r="E26">
+        <v>-0.03995565781012406</v>
+      </c>
+      <c r="F26">
+        <v>-0.01456610069487663</v>
+      </c>
+      <c r="G26">
+        <v>-0.01937018537579057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05463805914974851</v>
+        <v>-0.076176241265729</v>
       </c>
       <c r="C28">
-        <v>0.07658693965548632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.0770393659774469</v>
+      </c>
+      <c r="D28">
+        <v>0.3236478546980402</v>
+      </c>
+      <c r="E28">
+        <v>-0.04893282529149715</v>
+      </c>
+      <c r="F28">
+        <v>-0.04851063708428707</v>
+      </c>
+      <c r="G28">
+        <v>0.02628255842567944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03639017545641501</v>
+        <v>-0.04195766726501306</v>
       </c>
       <c r="C29">
-        <v>0.03268847971744597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02539053562467138</v>
+      </c>
+      <c r="D29">
+        <v>-0.01000522647883748</v>
+      </c>
+      <c r="E29">
+        <v>-0.04252022676253532</v>
+      </c>
+      <c r="F29">
+        <v>-0.004598198111082708</v>
+      </c>
+      <c r="G29">
+        <v>-0.00576365992589591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1137020056720202</v>
+        <v>-0.1269714450733507</v>
       </c>
       <c r="C30">
-        <v>0.09841718994959529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06648862463990816</v>
+      </c>
+      <c r="D30">
+        <v>-0.1048458425805959</v>
+      </c>
+      <c r="E30">
+        <v>-0.03924135305111699</v>
+      </c>
+      <c r="F30">
+        <v>-0.01044992034672233</v>
+      </c>
+      <c r="G30">
+        <v>0.0009614702384051598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03747884326138747</v>
+        <v>-0.04280832678381184</v>
       </c>
       <c r="C31">
-        <v>0.02478844716357386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01569682975642154</v>
+      </c>
+      <c r="D31">
+        <v>-0.02982244698529371</v>
+      </c>
+      <c r="E31">
+        <v>-0.0214968514231744</v>
+      </c>
+      <c r="F31">
+        <v>-0.01293732580154653</v>
+      </c>
+      <c r="G31">
+        <v>-0.02042492441662708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03196690629758563</v>
+        <v>-0.03342365932467883</v>
       </c>
       <c r="C32">
-        <v>0.02894518186942723</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01810954284132483</v>
+      </c>
+      <c r="D32">
+        <v>-0.01579251171510859</v>
+      </c>
+      <c r="E32">
+        <v>-0.05998296217426972</v>
+      </c>
+      <c r="F32">
+        <v>0.01931463972526931</v>
+      </c>
+      <c r="G32">
+        <v>0.004627648421135414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07624593606158517</v>
+        <v>-0.08744728072196498</v>
       </c>
       <c r="C33">
-        <v>0.05122831843866787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03302947117588093</v>
+      </c>
+      <c r="D33">
+        <v>-0.0635353327723049</v>
+      </c>
+      <c r="E33">
+        <v>-0.01432772163908185</v>
+      </c>
+      <c r="F33">
+        <v>-0.0005425641957523049</v>
+      </c>
+      <c r="G33">
+        <v>-0.03068265845572032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05132848500214864</v>
+        <v>-0.05629007638095096</v>
       </c>
       <c r="C34">
-        <v>0.032736363420538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01861346919691953</v>
+      </c>
+      <c r="D34">
+        <v>-0.05801628533838151</v>
+      </c>
+      <c r="E34">
+        <v>-0.004067048702930917</v>
+      </c>
+      <c r="F34">
+        <v>-0.02520704549874816</v>
+      </c>
+      <c r="G34">
+        <v>-0.01601844384345336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03731490709962429</v>
+        <v>-0.03950342327947556</v>
       </c>
       <c r="C35">
-        <v>0.01358409782432743</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.006004904709393679</v>
+      </c>
+      <c r="D35">
+        <v>-0.009790609271452795</v>
+      </c>
+      <c r="E35">
+        <v>-0.03148170201479934</v>
+      </c>
+      <c r="F35">
+        <v>0.007137546681339673</v>
+      </c>
+      <c r="G35">
+        <v>-0.00899413189797681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01888327309636827</v>
+        <v>-0.02247762430144818</v>
       </c>
       <c r="C36">
-        <v>0.01535880269898499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01009990834865418</v>
+      </c>
+      <c r="D36">
+        <v>-0.01830426346103001</v>
+      </c>
+      <c r="E36">
+        <v>-0.03534642077362921</v>
+      </c>
+      <c r="F36">
+        <v>-0.0135055308072447</v>
+      </c>
+      <c r="G36">
+        <v>-0.01893822057216001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03699878154333282</v>
+        <v>-0.03962197826087838</v>
       </c>
       <c r="C38">
-        <v>0.01274698541643178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003645997310119283</v>
+      </c>
+      <c r="D38">
+        <v>-0.01138139216623586</v>
+      </c>
+      <c r="E38">
+        <v>-0.05944599388352635</v>
+      </c>
+      <c r="F38">
+        <v>0.02712261626760427</v>
+      </c>
+      <c r="G38">
+        <v>0.02781575484154235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08716874282549597</v>
+        <v>-0.09861067250710738</v>
       </c>
       <c r="C39">
-        <v>0.08001257239584898</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05359530381583187</v>
+      </c>
+      <c r="D39">
+        <v>-0.08646802591925845</v>
+      </c>
+      <c r="E39">
+        <v>0.01771465533066931</v>
+      </c>
+      <c r="F39">
+        <v>-0.02239968552580707</v>
+      </c>
+      <c r="G39">
+        <v>0.00665961868020253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06825436424855494</v>
+        <v>-0.07505168721703953</v>
       </c>
       <c r="C40">
-        <v>0.05818987293117209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.040236358910013</v>
+      </c>
+      <c r="D40">
+        <v>-0.01029134194848568</v>
+      </c>
+      <c r="E40">
+        <v>-0.02721747414278436</v>
+      </c>
+      <c r="F40">
+        <v>0.04678183205617257</v>
+      </c>
+      <c r="G40">
+        <v>0.03840509011727485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0387050551070488</v>
+        <v>-0.04200027610120546</v>
       </c>
       <c r="C41">
-        <v>0.01609514832269515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.007872428012910423</v>
+      </c>
+      <c r="D41">
+        <v>-0.04246877133505184</v>
+      </c>
+      <c r="E41">
+        <v>-0.008181786455703072</v>
+      </c>
+      <c r="F41">
+        <v>0.01256823636858433</v>
+      </c>
+      <c r="G41">
+        <v>0.002922063082516464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04095308241950517</v>
+        <v>-0.04883929553976087</v>
       </c>
       <c r="C43">
-        <v>0.03676833681921466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02355934854106574</v>
+      </c>
+      <c r="D43">
+        <v>-0.02872156101050272</v>
+      </c>
+      <c r="E43">
+        <v>-0.01867556858695937</v>
+      </c>
+      <c r="F43">
+        <v>-0.00762187754031638</v>
+      </c>
+      <c r="G43">
+        <v>-0.01602593817830236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08671426023229796</v>
+        <v>-0.08891074078562715</v>
       </c>
       <c r="C44">
-        <v>0.09149778385108612</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06068476744268136</v>
+      </c>
+      <c r="D44">
+        <v>-0.06409518862308125</v>
+      </c>
+      <c r="E44">
+        <v>-0.09643874905443331</v>
+      </c>
+      <c r="F44">
+        <v>-0.05234172666114257</v>
+      </c>
+      <c r="G44">
+        <v>0.0007431972374453239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0276300623235549</v>
+        <v>-0.02837867529792718</v>
       </c>
       <c r="C46">
-        <v>0.01969960263934168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01240421982966788</v>
+      </c>
+      <c r="D46">
+        <v>-0.0333697643185933</v>
+      </c>
+      <c r="E46">
+        <v>-0.02233638913830278</v>
+      </c>
+      <c r="F46">
+        <v>-0.01814954484650158</v>
+      </c>
+      <c r="G46">
+        <v>0.006821667995139544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02961139021042976</v>
+        <v>-0.03266194193569223</v>
       </c>
       <c r="C47">
-        <v>0.0214998388231595</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01347897266069635</v>
+      </c>
+      <c r="D47">
+        <v>-0.01800801124746566</v>
+      </c>
+      <c r="E47">
+        <v>-0.05031242240425285</v>
+      </c>
+      <c r="F47">
+        <v>-0.009011082264267414</v>
+      </c>
+      <c r="G47">
+        <v>-0.02787684144939475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02785632211509538</v>
+        <v>-0.03199982126128631</v>
       </c>
       <c r="C48">
-        <v>0.01896723262624394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01190137234297192</v>
+      </c>
+      <c r="D48">
+        <v>-0.02774909424764353</v>
+      </c>
+      <c r="E48">
+        <v>-0.04233931913459463</v>
+      </c>
+      <c r="F48">
+        <v>-0.0124395606564767</v>
+      </c>
+      <c r="G48">
+        <v>-0.01166536263640227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1559754552582882</v>
+        <v>-0.1770173583037247</v>
       </c>
       <c r="C49">
-        <v>0.09562174969312578</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05960102920599827</v>
+      </c>
+      <c r="D49">
+        <v>-0.009493747620331366</v>
+      </c>
+      <c r="E49">
+        <v>0.1140706045224641</v>
+      </c>
+      <c r="F49">
+        <v>-0.01971735359419464</v>
+      </c>
+      <c r="G49">
+        <v>-0.07375966177121025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03236396960802854</v>
+        <v>-0.03987022363995304</v>
       </c>
       <c r="C50">
-        <v>0.02647150487628698</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02158580983994047</v>
+      </c>
+      <c r="D50">
+        <v>-0.04003723065431637</v>
+      </c>
+      <c r="E50">
+        <v>-0.0472215325026077</v>
+      </c>
+      <c r="F50">
+        <v>-0.02495370284818519</v>
+      </c>
+      <c r="G50">
+        <v>-0.02142028942780337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02476971936407661</v>
+        <v>-0.02615906775665797</v>
       </c>
       <c r="C51">
-        <v>0.01905201313541614</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01154334658397174</v>
+      </c>
+      <c r="D51">
+        <v>-0.02550774225113841</v>
+      </c>
+      <c r="E51">
+        <v>-0.01430298239319559</v>
+      </c>
+      <c r="F51">
+        <v>-0.006094992256873156</v>
+      </c>
+      <c r="G51">
+        <v>0.008476303224506983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1422001956109664</v>
+        <v>-0.1599112162801275</v>
       </c>
       <c r="C53">
-        <v>0.1028079990886545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.07011633829099329</v>
+      </c>
+      <c r="D53">
+        <v>-0.02440604035447648</v>
+      </c>
+      <c r="E53">
+        <v>0.03223676313667623</v>
+      </c>
+      <c r="F53">
+        <v>-0.02896616843428987</v>
+      </c>
+      <c r="G53">
+        <v>-0.02716262436355452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05244111354457956</v>
+        <v>-0.05604543129302633</v>
       </c>
       <c r="C54">
-        <v>0.02584165066111394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.012652136562677</v>
+      </c>
+      <c r="D54">
+        <v>-0.03680240391587031</v>
+      </c>
+      <c r="E54">
+        <v>-0.0405677873264781</v>
+      </c>
+      <c r="F54">
+        <v>-0.00890618889739362</v>
+      </c>
+      <c r="G54">
+        <v>-0.01100732524698267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09372279055236607</v>
+        <v>-0.1005755714149291</v>
       </c>
       <c r="C55">
-        <v>0.06397962450751732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04320587635843352</v>
+      </c>
+      <c r="D55">
+        <v>-0.03279650343679261</v>
+      </c>
+      <c r="E55">
+        <v>-0.010237514539853</v>
+      </c>
+      <c r="F55">
+        <v>-0.02784187400293348</v>
+      </c>
+      <c r="G55">
+        <v>-0.01020630640549849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1375425237118726</v>
+        <v>-0.1586905989075033</v>
       </c>
       <c r="C56">
-        <v>0.1108251881027302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07747793774399166</v>
+      </c>
+      <c r="D56">
+        <v>-0.01854968936231782</v>
+      </c>
+      <c r="E56">
+        <v>0.03355706905635888</v>
+      </c>
+      <c r="F56">
+        <v>-0.06377274786530571</v>
+      </c>
+      <c r="G56">
+        <v>-0.04292403741062006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1164705502781983</v>
+        <v>-0.1083847785694616</v>
       </c>
       <c r="C58">
-        <v>0.03357941270130579</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.00101841379215543</v>
+      </c>
+      <c r="D58">
+        <v>-0.05180327508185253</v>
+      </c>
+      <c r="E58">
+        <v>-0.1770336829199524</v>
+      </c>
+      <c r="F58">
+        <v>-0.03595701219264538</v>
+      </c>
+      <c r="G58">
+        <v>-0.04353558016265849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1075045808353739</v>
+        <v>-0.1479410415651546</v>
       </c>
       <c r="C59">
-        <v>0.08837743207185592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08607193090898854</v>
+      </c>
+      <c r="D59">
+        <v>0.3489930946298511</v>
+      </c>
+      <c r="E59">
+        <v>-0.04458058290703956</v>
+      </c>
+      <c r="F59">
+        <v>0.02719021298417517</v>
+      </c>
+      <c r="G59">
+        <v>-0.006633576568307616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.182489085905133</v>
+        <v>-0.2124602120892284</v>
       </c>
       <c r="C60">
-        <v>0.1173517472665532</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07977461756157554</v>
+      </c>
+      <c r="D60">
+        <v>-0.01677328301830608</v>
+      </c>
+      <c r="E60">
+        <v>0.07414791755412808</v>
+      </c>
+      <c r="F60">
+        <v>-0.04485442644692311</v>
+      </c>
+      <c r="G60">
+        <v>0.02949348452053215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07649985345304901</v>
+        <v>-0.08345476145839505</v>
       </c>
       <c r="C61">
-        <v>0.05829318625885915</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03807734400766338</v>
+      </c>
+      <c r="D61">
+        <v>-0.06193793836217643</v>
+      </c>
+      <c r="E61">
+        <v>0.01343211560213436</v>
+      </c>
+      <c r="F61">
+        <v>-0.005366120784675159</v>
+      </c>
+      <c r="G61">
+        <v>-0.03480244330788662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1171546983273873</v>
+        <v>-0.138058839016747</v>
       </c>
       <c r="C62">
-        <v>0.08382930418335119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05974692737430203</v>
+      </c>
+      <c r="D62">
+        <v>-0.02827248109362522</v>
+      </c>
+      <c r="E62">
+        <v>0.05078601911102916</v>
+      </c>
+      <c r="F62">
+        <v>-0.03287506658472806</v>
+      </c>
+      <c r="G62">
+        <v>0.01065010079020932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04881443540531464</v>
+        <v>-0.05154401728366576</v>
       </c>
       <c r="C63">
-        <v>0.02946215744587248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01783574591191384</v>
+      </c>
+      <c r="D63">
+        <v>-0.03080889145452343</v>
+      </c>
+      <c r="E63">
+        <v>-0.04724553216264936</v>
+      </c>
+      <c r="F63">
+        <v>-0.01492437860674604</v>
+      </c>
+      <c r="G63">
+        <v>0.02171609706716967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1056284610119465</v>
+        <v>-0.1101983125044166</v>
       </c>
       <c r="C64">
-        <v>0.04696580275704677</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02441114050431325</v>
+      </c>
+      <c r="D64">
+        <v>-0.04781587493287964</v>
+      </c>
+      <c r="E64">
+        <v>-0.03274929118593215</v>
+      </c>
+      <c r="F64">
+        <v>-0.04837713524820419</v>
+      </c>
+      <c r="G64">
+        <v>0.01197142362687881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.107792695920296</v>
+        <v>-0.1211799659409329</v>
       </c>
       <c r="C65">
-        <v>0.06620926287528983</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0445332558535664</v>
+      </c>
+      <c r="D65">
+        <v>-0.01629515845970167</v>
+      </c>
+      <c r="E65">
+        <v>0.005496154951952504</v>
+      </c>
+      <c r="F65">
+        <v>-0.06444816807444638</v>
+      </c>
+      <c r="G65">
+        <v>0.03527444765372802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1345923528042979</v>
+        <v>-0.1504365973894292</v>
       </c>
       <c r="C66">
-        <v>0.08996842825294704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05616599187583877</v>
+      </c>
+      <c r="D66">
+        <v>-0.1221729250239721</v>
+      </c>
+      <c r="E66">
+        <v>0.05298789015644862</v>
+      </c>
+      <c r="F66">
+        <v>-0.04305507915873648</v>
+      </c>
+      <c r="G66">
+        <v>-0.01792055578385464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06862016320879419</v>
+        <v>-0.07312762129964949</v>
       </c>
       <c r="C67">
-        <v>0.02490596224396824</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.008622533278836664</v>
+      </c>
+      <c r="D67">
+        <v>-0.02466407743389755</v>
+      </c>
+      <c r="E67">
+        <v>-0.02890108208153165</v>
+      </c>
+      <c r="F67">
+        <v>0.009728220139111071</v>
+      </c>
+      <c r="G67">
+        <v>0.002907376537298754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05461936136188371</v>
+        <v>-0.07026743350642496</v>
       </c>
       <c r="C68">
-        <v>0.04917044150658827</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04900611833065312</v>
+      </c>
+      <c r="D68">
+        <v>0.2647761506220134</v>
+      </c>
+      <c r="E68">
+        <v>-0.04819329324377291</v>
+      </c>
+      <c r="F68">
+        <v>-0.009415307600723654</v>
+      </c>
+      <c r="G68">
+        <v>-0.001332790864860751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04734092768304117</v>
+        <v>-0.05072909852061038</v>
       </c>
       <c r="C69">
-        <v>0.02750907405603297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01279838007944869</v>
+      </c>
+      <c r="D69">
+        <v>-0.03641115851606666</v>
+      </c>
+      <c r="E69">
+        <v>-0.01689960882371137</v>
+      </c>
+      <c r="F69">
+        <v>-0.001293487612844593</v>
+      </c>
+      <c r="G69">
+        <v>-0.01034418176248367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003454961928849117</v>
+        <v>-0.01070450404389594</v>
       </c>
       <c r="C70">
-        <v>-0.00182000444037727</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0009113170235678968</v>
+      </c>
+      <c r="D70">
+        <v>0.00239369113841257</v>
+      </c>
+      <c r="E70">
+        <v>0.005594651202500856</v>
+      </c>
+      <c r="F70">
+        <v>0.005267273481339531</v>
+      </c>
+      <c r="G70">
+        <v>0.0005199937526535584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05674927387031677</v>
+        <v>-0.07351920011334694</v>
       </c>
       <c r="C71">
-        <v>0.04972335727325373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04909584108494937</v>
+      </c>
+      <c r="D71">
+        <v>0.3029336308772239</v>
+      </c>
+      <c r="E71">
+        <v>-0.04831017277740315</v>
+      </c>
+      <c r="F71">
+        <v>-0.02121475515209715</v>
+      </c>
+      <c r="G71">
+        <v>-0.005746418694814808</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1292204043887691</v>
+        <v>-0.1497069899469946</v>
       </c>
       <c r="C72">
-        <v>0.07735317831487126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05160180648764873</v>
+      </c>
+      <c r="D72">
+        <v>-0.01482105555385079</v>
+      </c>
+      <c r="E72">
+        <v>0.112181135025305</v>
+      </c>
+      <c r="F72">
+        <v>0.1403197785823869</v>
+      </c>
+      <c r="G72">
+        <v>0.122020100897221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2420302356427265</v>
+        <v>-0.2678183099823583</v>
       </c>
       <c r="C73">
-        <v>0.1406063374886787</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08771837880489121</v>
+      </c>
+      <c r="D73">
+        <v>-0.06341764534564184</v>
+      </c>
+      <c r="E73">
+        <v>0.18550607222594</v>
+      </c>
+      <c r="F73">
+        <v>-0.0793233974155866</v>
+      </c>
+      <c r="G73">
+        <v>-0.1655902190676042</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07654781551847885</v>
+        <v>-0.08870423614252977</v>
       </c>
       <c r="C74">
-        <v>0.0815820954406868</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.0623917232979631</v>
+      </c>
+      <c r="D74">
+        <v>-0.03611909853074683</v>
+      </c>
+      <c r="E74">
+        <v>0.002496581440827338</v>
+      </c>
+      <c r="F74">
+        <v>0.003843844653065277</v>
+      </c>
+      <c r="G74">
+        <v>-0.03563333983589937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09645108146417962</v>
+        <v>-0.1081038594464804</v>
       </c>
       <c r="C75">
-        <v>0.07353169815987036</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04502442750690799</v>
+      </c>
+      <c r="D75">
+        <v>-0.02399341285824482</v>
+      </c>
+      <c r="E75">
+        <v>-0.01347161414667233</v>
+      </c>
+      <c r="F75">
+        <v>-0.07601982739977847</v>
+      </c>
+      <c r="G75">
+        <v>-0.01513072370718234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1183888751082662</v>
+        <v>-0.1331836082589128</v>
       </c>
       <c r="C76">
-        <v>0.09988125214112861</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06923225057979715</v>
+      </c>
+      <c r="D76">
+        <v>-0.05771717884742308</v>
+      </c>
+      <c r="E76">
+        <v>-0.01241822649836474</v>
+      </c>
+      <c r="F76">
+        <v>-0.07240111980411749</v>
+      </c>
+      <c r="G76">
+        <v>-0.02217180479780382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09427861060674532</v>
+        <v>-0.101144941274429</v>
       </c>
       <c r="C77">
-        <v>0.06714502413544192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.03450540034108828</v>
+      </c>
+      <c r="D77">
+        <v>-0.04298324179801291</v>
+      </c>
+      <c r="E77">
+        <v>0.05539465849546955</v>
+      </c>
+      <c r="F77">
+        <v>-0.32539674805167</v>
+      </c>
+      <c r="G77">
+        <v>0.8771958603353409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08395565038951701</v>
+        <v>-0.09956783157573666</v>
       </c>
       <c r="C78">
-        <v>0.04763463513090177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03155966617620785</v>
+      </c>
+      <c r="D78">
+        <v>-0.07297842258424117</v>
+      </c>
+      <c r="E78">
+        <v>-0.05209464197128361</v>
+      </c>
+      <c r="F78">
+        <v>0.01305059633866189</v>
+      </c>
+      <c r="G78">
+        <v>0.02808591974485189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1348998591692311</v>
+        <v>-0.1508216447101799</v>
       </c>
       <c r="C79">
-        <v>0.1023435659833257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06555401721864929</v>
+      </c>
+      <c r="D79">
+        <v>-0.03027523900126755</v>
+      </c>
+      <c r="E79">
+        <v>0.01867060940239198</v>
+      </c>
+      <c r="F79">
+        <v>-0.03784535614639569</v>
+      </c>
+      <c r="G79">
+        <v>-0.02142297257598274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0446090865240983</v>
+        <v>-0.04002909945841793</v>
       </c>
       <c r="C80">
-        <v>0.01888625547638462</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005899680459108231</v>
+      </c>
+      <c r="D80">
+        <v>-0.02622761979188373</v>
+      </c>
+      <c r="E80">
+        <v>-0.0103145623863749</v>
+      </c>
+      <c r="F80">
+        <v>0.03466293853819988</v>
+      </c>
+      <c r="G80">
+        <v>-0.04361655769373503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.108635429588219</v>
+        <v>-0.120607519958963</v>
       </c>
       <c r="C81">
-        <v>0.08102242746362454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05224853641161849</v>
+      </c>
+      <c r="D81">
+        <v>-0.03969408913938466</v>
+      </c>
+      <c r="E81">
+        <v>0.00309020810657848</v>
+      </c>
+      <c r="F81">
+        <v>-0.03957051539783554</v>
+      </c>
+      <c r="G81">
+        <v>-0.05707159058364057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1148117157985085</v>
+        <v>-0.1260595179448035</v>
       </c>
       <c r="C82">
-        <v>0.09444139368416767</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06120726611554092</v>
+      </c>
+      <c r="D82">
+        <v>-0.03940879931860875</v>
+      </c>
+      <c r="E82">
+        <v>0.02150796037547401</v>
+      </c>
+      <c r="F82">
+        <v>-0.05878223023907226</v>
+      </c>
+      <c r="G82">
+        <v>-0.06546065831322355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07145783807887765</v>
+        <v>-0.07006168938113796</v>
       </c>
       <c r="C83">
-        <v>0.01602392926647751</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.004949257867800275</v>
+      </c>
+      <c r="D83">
+        <v>-0.04216738928527633</v>
+      </c>
+      <c r="E83">
+        <v>-0.01239718635270752</v>
+      </c>
+      <c r="F83">
+        <v>0.004134995220536877</v>
+      </c>
+      <c r="G83">
+        <v>-0.05580030027336962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02432112139943332</v>
+        <v>-0.03287493461750122</v>
       </c>
       <c r="C84">
-        <v>0.01921011918208178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01880192910352339</v>
+      </c>
+      <c r="D84">
+        <v>-0.01380080279022434</v>
+      </c>
+      <c r="E84">
+        <v>-0.007960419060898628</v>
+      </c>
+      <c r="F84">
+        <v>0.03679861830596263</v>
+      </c>
+      <c r="G84">
+        <v>-0.03636817880659766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1169150402725758</v>
+        <v>-0.118681708677344</v>
       </c>
       <c r="C85">
-        <v>0.08108911430133908</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04594099499619905</v>
+      </c>
+      <c r="D85">
+        <v>-0.03680083194969182</v>
+      </c>
+      <c r="E85">
+        <v>-0.01635745175070633</v>
+      </c>
+      <c r="F85">
+        <v>-0.085525566901533</v>
+      </c>
+      <c r="G85">
+        <v>-0.00962544948476615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04382993116432683</v>
+        <v>-0.04658214680034145</v>
       </c>
       <c r="C86">
-        <v>0.02514336567442758</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01159642497057973</v>
+      </c>
+      <c r="D86">
+        <v>-0.01460178123200297</v>
+      </c>
+      <c r="E86">
+        <v>-0.04486241921587235</v>
+      </c>
+      <c r="F86">
+        <v>-0.009514750202531529</v>
+      </c>
+      <c r="G86">
+        <v>0.001412556545511834</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1126386326095185</v>
+        <v>-0.1185092900530255</v>
       </c>
       <c r="C87">
-        <v>0.08046658577620533</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04733536106744431</v>
+      </c>
+      <c r="D87">
+        <v>-0.07478231907096398</v>
+      </c>
+      <c r="E87">
+        <v>-0.01393804640362308</v>
+      </c>
+      <c r="F87">
+        <v>-0.03430171455375913</v>
+      </c>
+      <c r="G87">
+        <v>0.09942242558692738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05298369318774333</v>
+        <v>-0.05706104144665318</v>
       </c>
       <c r="C88">
-        <v>0.04250354690254424</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02619401584701495</v>
+      </c>
+      <c r="D88">
+        <v>-0.02688138375787281</v>
+      </c>
+      <c r="E88">
+        <v>-0.02123302868348958</v>
+      </c>
+      <c r="F88">
+        <v>-0.006702394958257183</v>
+      </c>
+      <c r="G88">
+        <v>0.006509512090842583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07625530200627451</v>
+        <v>-0.1069752986613282</v>
       </c>
       <c r="C89">
-        <v>0.0829307683977728</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.08052112275591776</v>
+      </c>
+      <c r="D89">
+        <v>0.323846179703408</v>
+      </c>
+      <c r="E89">
+        <v>-0.09461638772685538</v>
+      </c>
+      <c r="F89">
+        <v>-0.04762394199691997</v>
+      </c>
+      <c r="G89">
+        <v>-0.01385123178251368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07117152896999195</v>
+        <v>-0.09195302896876373</v>
       </c>
       <c r="C90">
-        <v>0.07428447290044164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.07010706633210227</v>
+      </c>
+      <c r="D90">
+        <v>0.3105535189346724</v>
+      </c>
+      <c r="E90">
+        <v>-0.07608641333429096</v>
+      </c>
+      <c r="F90">
+        <v>0.02395532445836086</v>
+      </c>
+      <c r="G90">
+        <v>-0.0146045613012651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07980429755627332</v>
+        <v>-0.0892077894537867</v>
       </c>
       <c r="C91">
-        <v>0.06481399213382272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04283060605135616</v>
+      </c>
+      <c r="D91">
+        <v>-0.02956507865706507</v>
+      </c>
+      <c r="E91">
+        <v>-0.006059076327267363</v>
+      </c>
+      <c r="F91">
+        <v>-0.0163692733307438</v>
+      </c>
+      <c r="G91">
+        <v>-0.03424620403340126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08459914930659226</v>
+        <v>-0.1055694892421357</v>
       </c>
       <c r="C92">
-        <v>0.06626905252419839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06328317529115199</v>
+      </c>
+      <c r="D92">
+        <v>0.3288909978939187</v>
+      </c>
+      <c r="E92">
+        <v>-0.02993649696894805</v>
+      </c>
+      <c r="F92">
+        <v>-0.02675959411333877</v>
+      </c>
+      <c r="G92">
+        <v>0.02033880264014847</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06249345853430715</v>
+        <v>-0.08689398622962367</v>
       </c>
       <c r="C93">
-        <v>0.06922846161493292</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.0683848986470018</v>
+      </c>
+      <c r="D93">
+        <v>0.2981760083590562</v>
+      </c>
+      <c r="E93">
+        <v>-0.04453543876501441</v>
+      </c>
+      <c r="F93">
+        <v>-0.0318454945343775</v>
+      </c>
+      <c r="G93">
+        <v>0.01219909417550563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1257432614198823</v>
+        <v>-0.1288361558774631</v>
       </c>
       <c r="C94">
-        <v>0.07923420598206689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0393617055513369</v>
+      </c>
+      <c r="D94">
+        <v>-0.05754581504064723</v>
+      </c>
+      <c r="E94">
+        <v>0.02455053167845896</v>
+      </c>
+      <c r="F94">
+        <v>-0.05140910415273402</v>
+      </c>
+      <c r="G94">
+        <v>-0.04128905407318735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1138154419672672</v>
+        <v>-0.1192727877026333</v>
       </c>
       <c r="C95">
-        <v>0.05493659849695883</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02732197818474957</v>
+      </c>
+      <c r="D95">
+        <v>-0.0575302547155504</v>
+      </c>
+      <c r="E95">
+        <v>0.01295176631067443</v>
+      </c>
+      <c r="F95">
+        <v>-0.03467672907969695</v>
+      </c>
+      <c r="G95">
+        <v>0.008850681848802482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1875122147307161</v>
+        <v>-0.2223386605004787</v>
       </c>
       <c r="C97">
-        <v>0.07406739812110509</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04202606128265297</v>
+      </c>
+      <c r="D97">
+        <v>0.006636249631802221</v>
+      </c>
+      <c r="E97">
+        <v>0.2572098237227284</v>
+      </c>
+      <c r="F97">
+        <v>0.8478338975224224</v>
+      </c>
+      <c r="G97">
+        <v>0.254667406806234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2351835394938374</v>
+        <v>-0.257441877463037</v>
       </c>
       <c r="C98">
-        <v>0.1194713873917976</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06196744139369093</v>
+      </c>
+      <c r="D98">
+        <v>-0.03581708348537776</v>
+      </c>
+      <c r="E98">
+        <v>0.142018536611574</v>
+      </c>
+      <c r="F98">
+        <v>-0.01060508247679565</v>
+      </c>
+      <c r="G98">
+        <v>-0.2357128020123861</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5632996653903549</v>
+        <v>-0.3733339218140113</v>
       </c>
       <c r="C99">
-        <v>-0.816275812901698</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9169665578102153</v>
+      </c>
+      <c r="D99">
+        <v>0.07262207972806013</v>
+      </c>
+      <c r="E99">
+        <v>-0.05051081572588646</v>
+      </c>
+      <c r="F99">
+        <v>-0.03558570478497186</v>
+      </c>
+      <c r="G99">
+        <v>-0.002907513781831339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03660693109980925</v>
+        <v>-0.04212829817539315</v>
       </c>
       <c r="C101">
-        <v>0.03283916139498868</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02544747965513385</v>
+      </c>
+      <c r="D101">
+        <v>-0.01068273958501642</v>
+      </c>
+      <c r="E101">
+        <v>-0.04160732096705739</v>
+      </c>
+      <c r="F101">
+        <v>-0.004086393684378894</v>
+      </c>
+      <c r="G101">
+        <v>-0.006276647447720605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
